--- a/data/trans_bre/P70D_R_2023-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P70D_R_2023-Habitat-trans_bre.xlsx
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.847088310753457</v>
+        <v>-1.792677529834917</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.3095758770172808</v>
+        <v>-0.2853718071653145</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.751352414907031</v>
+        <v>5.721244551518543</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.518094953082422</v>
+        <v>1.525708468347593</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2995289265344013</v>
+        <v>0.2682427645572906</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.04823946269841912</v>
+        <v>0.03021307937247806</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.289448197750832</v>
+        <v>5.105053750335744</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.130023860130721</v>
+        <v>1.997088224499986</v>
       </c>
     </row>
     <row r="10">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.124849138265875</v>
+        <v>-2.097006922184448</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.5683810143389917</v>
+        <v>-0.5327986365631624</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.484224429456496</v>
+        <v>2.401181436805847</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.756619009479489</v>
+        <v>1.765166069644855</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.434456850637451</v>
+        <v>1.434456850637452</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.2514432034704913</v>
+        <v>0.2514432034704914</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.000013997108694</v>
+        <v>-1.671439356740939</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.275274572744786</v>
+        <v>-0.2399173958271334</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.394575991833945</v>
+        <v>4.5747067760765</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.031181270417309</v>
+        <v>1.07101479665761</v>
       </c>
     </row>
     <row r="16">
@@ -739,7 +739,7 @@
         <v>1.59080912218476</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.3759488805694861</v>
+        <v>0.3759488805694859</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0617235638977443</v>
+        <v>0.1676950599585825</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.009697346080325126</v>
+        <v>0.0309174735824938</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.007190582776929</v>
+        <v>2.9867419167599</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.8747313710127528</v>
+        <v>0.8117005470765232</v>
       </c>
     </row>
     <row r="19">
